--- a/Seepz/src/main/resources/Test_Data.xlsx
+++ b/Seepz/src/main/resources/Test_Data.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17772" windowHeight="6384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10284" windowHeight="5064" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
+    <sheet name="Time" sheetId="2" r:id="rId2"/>
+    <sheet name="name&amp;venue" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A13:L27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>UserName</t>
   </si>
@@ -41,24 +43,73 @@
   </si>
   <si>
     <t>tests</t>
+  </si>
+  <si>
+    <t>jaijj.g149201@gov.in</t>
+  </si>
+  <si>
+    <t>Meeting Name</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Meeting of seepz sez:1</t>
+  </si>
+  <si>
+    <t>Meeting of seepz sez:2</t>
+  </si>
+  <si>
+    <t>Meeting of seepz sez:3</t>
+  </si>
+  <si>
+    <t>Meeting of seepz sez:4</t>
+  </si>
+  <si>
+    <t>Meeting of seepz sez:5</t>
+  </si>
+  <si>
+    <t>Meeting of seepz sez:6</t>
+  </si>
+  <si>
+    <t>Meeting of seepz sez:7</t>
+  </si>
+  <si>
+    <t>Meeting hall :1</t>
+  </si>
+  <si>
+    <t>Meeting hall :2</t>
+  </si>
+  <si>
+    <t>Meeting hall :3</t>
+  </si>
+  <si>
+    <t>Meeting hall :4</t>
+  </si>
+  <si>
+    <t>Meeting hall :5</t>
+  </si>
+  <si>
+    <t>Meeting hall :6</t>
+  </si>
+  <si>
+    <t>Meeting hall :7</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,16 +132,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +478,12 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -440,4 +493,494 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Seepz/src/main/resources/Test_Data.xlsx
+++ b/Seepz/src/main/resources/Test_Data.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10284" windowHeight="5064" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16344" windowHeight="6432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
-    <sheet name="name&amp;venue" sheetId="3" r:id="rId3"/>
+    <sheet name="Agenda_Details" sheetId="4" r:id="rId3"/>
+    <sheet name="name&amp;venue" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A13:L27"/>
+  <oleSize ref="A1:P20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>UserName</t>
   </si>
@@ -100,6 +101,129 @@
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>Action Taken report for the minutes of the meeting</t>
+  </si>
+  <si>
+    <t>Application for Addition of Location</t>
+  </si>
+  <si>
+    <t>Application for Additional List of Services</t>
+  </si>
+  <si>
+    <t>Application for Bond-Cum-Legal Undertaking</t>
+  </si>
+  <si>
+    <t>Application for Broad – Banding of Items</t>
+  </si>
+  <si>
+    <t>Application for capacity enhancement</t>
+  </si>
+  <si>
+    <t>application for change in building structure</t>
+  </si>
+  <si>
+    <t>Application for Change of Enterprener</t>
+  </si>
+  <si>
+    <t>Application for Change of Name</t>
+  </si>
+  <si>
+    <t>Agenda Title</t>
+  </si>
+  <si>
+    <t>SEZ Name</t>
+  </si>
+  <si>
+    <t>EOU</t>
+  </si>
+  <si>
+    <t>SEEPZ SEZ</t>
+  </si>
+  <si>
+    <t>Mindspace-SEZ</t>
+  </si>
+  <si>
+    <t>Gigaplex-SEZ</t>
+  </si>
+  <si>
+    <t>Festus-SEZ</t>
+  </si>
+  <si>
+    <t>JNPA-SEZ</t>
+  </si>
+  <si>
+    <t>Capgemini-SEZ</t>
+  </si>
+  <si>
+    <t>LTIMindTree-SEZ</t>
+  </si>
+  <si>
+    <t>Arshiya-SEZ</t>
+  </si>
+  <si>
+    <t>Aurum</t>
+  </si>
+  <si>
+    <t>ROMA</t>
+  </si>
+  <si>
+    <t>Persipina</t>
+  </si>
+  <si>
+    <t>Existing Unit Name</t>
+  </si>
+  <si>
+    <t>Aakash Jewels</t>
+  </si>
+  <si>
+    <t>ACE Software Solutions (I) Pvt. Ltd</t>
+  </si>
+  <si>
+    <t>ADB kran</t>
+  </si>
+  <si>
+    <t>Adinath Jewellery Exports</t>
+  </si>
+  <si>
+    <t>Advance Power Display Systems Ltd</t>
+  </si>
+  <si>
+    <t>AEML SEEPZ Limited</t>
+  </si>
+  <si>
+    <t>Allied Digital Services Ltd</t>
+  </si>
+  <si>
+    <t>Ambition Jewels Pvt. Ltd</t>
+  </si>
+  <si>
+    <t>AMMANTE JEWELLS LLP</t>
+  </si>
+  <si>
+    <t>Anlage Infotech (India) Pvt. Ltd</t>
+  </si>
+  <si>
+    <t>Unit Name</t>
+  </si>
+  <si>
+    <t>Malabar Gold</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global </t>
+  </si>
+  <si>
+    <t>SunTv</t>
+  </si>
+  <si>
+    <t>Sequence number</t>
   </si>
 </sst>
 </file>
@@ -135,8 +259,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -903,6 +1030,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
